--- a/doc/plan/dates (version 1).xlsx
+++ b/doc/plan/dates (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700p\Desktop\Ally\projects\TrainingTracker\TrainingTracker\doc\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21254EF8-AD5D-4091-A528-8D4E019D2990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31185754-4CC9-4843-B5F4-AB9685D1AEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -74,9 +73,6 @@
     <t>background information</t>
   </si>
   <si>
-    <t>tag, app logo</t>
-  </si>
-  <si>
     <t>muscle button</t>
   </si>
   <si>
@@ -110,7 +106,10 @@
     <t>record box, card record</t>
   </si>
   <si>
-    <t>introduction information, app colour</t>
+    <t>introduction information</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -825,7 +824,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1183,19 +1182,19 @@
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
         <v>10</v>
@@ -1234,19 +1233,19 @@
         <v>21</v>
       </c>
       <c r="C19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="21" t="s">
+      <c r="G19" s="23" t="s">
         <v>22</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>23</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
@@ -1290,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -1299,7 +1298,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="25"/>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="8" customFormat="1">
@@ -1345,7 +1344,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="8" customFormat="1">
@@ -1519,7 +1518,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:10">

--- a/doc/plan/dates (version 1).xlsx
+++ b/doc/plan/dates (version 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700p\Desktop\Ally\projects\TrainingTracker\TrainingTracker\doc\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31185754-4CC9-4843-B5F4-AB9685D1AEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7344A3EA-A077-4742-ACE7-069DB1BC1CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,7 +824,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/doc/plan/dates (version 1).xlsx
+++ b/doc/plan/dates (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700p\Desktop\Ally\projects\TrainingTracker\TrainingTracker\doc\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7344A3EA-A077-4742-ACE7-069DB1BC1CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B8C83B-240C-4E5E-B8A8-74BA38C4A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/doc/plan/dates (version 1).xlsx
+++ b/doc/plan/dates (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700p\Desktop\Ally\projects\TrainingTracker\TrainingTracker\doc\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B8C83B-240C-4E5E-B8A8-74BA38C4A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDE760-51CE-4607-940A-1D674FA5E96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Sun</t>
   </si>
@@ -52,64 +52,40 @@
     <t>Introduction &amp; Background</t>
   </si>
   <si>
-    <t>Version 2</t>
-  </si>
-  <si>
     <t>easter holiday</t>
   </si>
   <si>
     <t>poster day</t>
   </si>
   <si>
-    <t>Version 4 (final)</t>
-  </si>
-  <si>
     <t>deadline</t>
   </si>
   <si>
     <t>version 3, project execution</t>
   </si>
   <si>
-    <t>background information</t>
-  </si>
-  <si>
-    <t>muscle button</t>
-  </si>
-  <si>
     <t>muscle colour changing</t>
   </si>
   <si>
-    <t>muscle connect to drop down menu</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>project execution outlines</t>
-  </si>
-  <si>
-    <t>project execution information</t>
-  </si>
-  <si>
     <t>dissertation finalise</t>
   </si>
   <si>
-    <t>Google play store</t>
-  </si>
-  <si>
-    <t>Version 2 +</t>
-  </si>
-  <si>
     <t>google firebase</t>
   </si>
   <si>
-    <t>record box, card record</t>
-  </si>
-  <si>
-    <t>introduction information</t>
-  </si>
-  <si>
-    <t>tag</t>
+    <t>Version 2 release to google play store</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>tag, tv 하부 수납장, 내방 옷장 (우), 물건 박스 1</t>
+  </si>
+  <si>
+    <t>filter, 엄마 드레스룸, 물건 박스 1, 내방 옷장 (좌)</t>
+  </si>
+  <si>
+    <t>setting &amp; finalise, 엄마 드레스룸</t>
   </si>
 </sst>
 </file>
@@ -823,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1181,24 +1157,11 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
-      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:10" s="8" customFormat="1">
       <c r="A18" s="9"/>
@@ -1232,26 +1195,13 @@
       <c r="B19" s="18">
         <v>21</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="20" spans="1:10" s="8" customFormat="1">
       <c r="A20" s="9"/>
@@ -1278,7 +1228,7 @@
         <v>45381</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1289,16 +1239,24 @@
         <v>22</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
+      <c r="F21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="8" customFormat="1">
@@ -1326,7 +1284,7 @@
         <v>45388</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1344,7 +1302,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="25"/>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="8" customFormat="1">
@@ -1372,7 +1330,7 @@
         <v>45395</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1390,7 +1348,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1429,7 +1387,7 @@
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
       <c r="F27" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="24"/>
@@ -1518,7 +1476,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1558,7 +1516,7 @@
       <c r="E33" s="21"/>
       <c r="F33" s="22"/>
       <c r="G33" s="31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>

--- a/doc/plan/dates (version 1).xlsx
+++ b/doc/plan/dates (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700p\Desktop\Ally\projects\TrainingTracker\TrainingTracker\doc\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDE760-51CE-4607-940A-1D674FA5E96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4285BD0A-2D70-4D71-AAA7-1A5048B23553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,13 +79,13 @@
     <t>Poster</t>
   </si>
   <si>
-    <t>tag, tv 하부 수납장, 내방 옷장 (우), 물건 박스 1</t>
-  </si>
-  <si>
-    <t>filter, 엄마 드레스룸, 물건 박스 1, 내방 옷장 (좌)</t>
-  </si>
-  <si>
-    <t>setting &amp; finalise, 엄마 드레스룸</t>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>setting &amp; finalise</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
 </sst>
 </file>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1243,14 +1243,12 @@
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>21</v>
@@ -1294,7 +1292,9 @@
       <c r="B23" s="18">
         <v>23</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>

--- a/doc/plan/dates (version 1).xlsx
+++ b/doc/plan/dates (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700p\Desktop\Ally\projects\TrainingTracker\TrainingTracker\doc\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4285BD0A-2D70-4D71-AAA7-1A5048B23553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB37E6B-8115-40EF-B6A7-15F86A9AC372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Sun</t>
   </si>
@@ -64,28 +64,58 @@
     <t>version 3, project execution</t>
   </si>
   <si>
+    <t>dissertation finalise</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>background finalise</t>
+  </si>
+  <si>
+    <t>clickable muscle</t>
+  </si>
+  <si>
+    <t>poster 1/2</t>
+  </si>
+  <si>
+    <t>poster idea</t>
+  </si>
+  <si>
+    <t>clickable muscle 1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poster finalise </t>
+  </si>
+  <si>
+    <t>project execution idea</t>
+  </si>
+  <si>
+    <t>google play store, cgi project study</t>
+  </si>
+  <si>
+    <t>firebase, cgi theory study</t>
+  </si>
+  <si>
+    <t>introduction idea, cgi theory study</t>
+  </si>
+  <si>
+    <t>finalise introduction, cgi project idea</t>
+  </si>
+  <si>
+    <t>background idea, start cgi project</t>
+  </si>
+  <si>
+    <t>cgi project, EC submission</t>
+  </si>
+  <si>
     <t>muscle colour changing</t>
   </si>
   <si>
-    <t>dissertation finalise</t>
-  </si>
-  <si>
-    <t>google firebase</t>
-  </si>
-  <si>
-    <t>Version 2 release to google play store</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>setting &amp; finalise</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>add log, setting</t>
   </si>
 </sst>
 </file>
@@ -797,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1148,7 +1178,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17" s="17">
         <v>8</v>
       </c>
@@ -1163,7 +1193,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:10" s="8" customFormat="1">
+    <row r="18" spans="1:12" s="8" customFormat="1">
       <c r="A18" s="9"/>
       <c r="B18" s="26"/>
       <c r="C18" s="10">
@@ -1188,7 +1218,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -1203,7 +1233,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:10" s="8" customFormat="1">
+    <row r="20" spans="1:12" s="8" customFormat="1">
       <c r="A20" s="9"/>
       <c r="B20" s="26"/>
       <c r="C20" s="10">
@@ -1231,33 +1261,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="A21" s="17">
         <v>10</v>
       </c>
       <c r="B21" s="18">
         <v>22</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="8" customFormat="1">
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" s="8" customFormat="1">
       <c r="A22" s="9"/>
       <c r="B22" s="26"/>
       <c r="C22" s="10">
@@ -1285,27 +1304,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:12">
       <c r="A23" s="17">
         <v>11</v>
       </c>
       <c r="B23" s="18">
         <v>23</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>20</v>
-      </c>
+      <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
+      <c r="F23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="J23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="8" customFormat="1">
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1">
       <c r="A24" s="9"/>
       <c r="B24" s="26"/>
       <c r="C24" s="10">
@@ -1333,25 +1361,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" s="17">
         <v>12</v>
       </c>
       <c r="B25" s="18">
         <v>24</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
+      <c r="C25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="J25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="28"/>
       <c r="B26" s="26"/>
       <c r="C26" s="10">
@@ -1376,24 +1418,32 @@
         <v>45402</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="A27" s="30">
         <v>13</v>
       </c>
       <c r="B27" s="18">
         <v>25</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="F27" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="H27" s="24"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="A28" s="28"/>
       <c r="B28" s="26"/>
       <c r="C28" s="10">
@@ -1418,7 +1468,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="A29" s="30">
         <v>14</v>
       </c>
@@ -1432,11 +1482,8 @@
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
       <c r="I29" s="25"/>
-      <c r="J29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="28"/>
       <c r="B30" s="26"/>
       <c r="C30" s="10">
@@ -1461,7 +1508,7 @@
         <v>45416</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="A31" s="30">
         <v>15</v>
       </c>
@@ -1476,10 +1523,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="25"/>
       <c r="J31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="28"/>
       <c r="B32" s="26"/>
       <c r="C32" s="10">
@@ -1504,7 +1551,7 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="30">
         <v>16</v>
       </c>
@@ -1520,6 +1567,9 @@
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25"/>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
